--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veryordinary11/Desktop/QMS1/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57148CA5-8FC6-8A47-A68E-85846BA3F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21BC405-E354-2545-AC78-83A2A514FF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15620" xr2:uid="{751C0320-C01D-E340-B946-484275D771C7}"/>
   </bookViews>
@@ -266,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +277,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -311,21 +319,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,7 +750,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,48 +766,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -710,447 +816,449 @@
       <c r="D3" s="3">
         <v>37187</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="3">
         <v>36265</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>35471</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>36835</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>35998</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="13">
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="13" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="17">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="17">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="17">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="17">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="17">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="17">
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="19">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="20" t="s">
         <v>74</v>
       </c>
     </row>
